--- a/RUDN/Importance/Varible_class_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_class_in_Middle Africa.xlsx
@@ -14,15 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
 </sst>
 </file>
@@ -380,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4852941176470588</v>
+        <v>0.2574257552623749</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3088235294117647</v>
+        <v>0.2425742596387863</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +454,119 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2058823529411765</v>
+        <v>0.2128712832927704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2079207897186279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.01485148537904024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.009900989942252636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.004950494971126318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.004950494971126318</v>
       </c>
     </row>
   </sheetData>
